--- a/config_12.08/prop_clear_server.xlsx
+++ b/config_12.08/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>id|行号</t>
   </si>
@@ -285,6 +285,13 @@
   </si>
   <si>
     <t>感恩节稀有宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+  </si>
+  <si>
+    <t>双十二礼盒掉落物</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +449,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +511,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,7 +796,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1292,8 +1308,21 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="20"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1607385600</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1607961599</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>

--- a/config_12.08/prop_clear_server.xlsx
+++ b/config_12.08/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>id|行号</t>
   </si>
@@ -292,6 +292,14 @@
   </si>
   <si>
     <t>双十二礼盒掉落物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +457,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,9 +485,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -513,8 +515,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,16 +843,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="27.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26" style="31" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -815,16 +862,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -832,16 +879,16 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1591054200</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="28">
         <v>1591635600</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
@@ -852,16 +899,16 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="31">
         <v>1588633200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="23">
         <v>1589216400</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -869,16 +916,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="31">
         <v>1588028400</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>1588611600</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -886,16 +933,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="31">
         <v>1589844600</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <v>1590422400</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -903,16 +950,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="31">
         <v>1598310000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>1598889599</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -920,16 +967,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="31">
         <v>1599523200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <v>1603123199</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -937,16 +984,16 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="31">
         <v>1599523200</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>1600099199</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -954,16 +1001,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -971,16 +1018,16 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -988,16 +1035,16 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1005,16 +1052,16 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1022,16 +1069,16 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1039,16 +1086,16 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1056,16 +1103,16 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1073,16 +1120,16 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1090,255 +1137,274 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="32">
         <v>1605571200</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="24">
         <v>1606147199</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="3">
         <v>1603152000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="22">
         <v>1603727999</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="3">
         <v>1603756800</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>1604332799</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="3">
         <v>1604966400</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="22">
         <v>1605542399</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+    <row r="27" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
+    <row r="28" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
+    <row r="29" spans="1:5" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="33">
         <v>1606176000</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="25">
         <v>1606751999</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+    <row r="30" spans="1:5" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="34">
         <v>1607385600</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="26">
         <v>1607961599</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B31" s="20"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B32" s="20"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="20"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="2:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="20"/>
-      <c r="E34" s="12"/>
+    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1607385600</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1607961599</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="18"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:5" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="18"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
